--- a/BackTest/2020-01-14 BackTest OCN.xlsx
+++ b/BackTest/2020-01-14 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-20134211.0868089</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-20134211.0868089</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-22360051.7600089</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-34731559.5251089</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-38309726.0100089</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-38309726.0100089</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-39656638.6600089</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-50077554.0292089</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-50076354.0292089</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-50533180.0491089</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-54975971.1234089</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-49091083.5168089</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-50072490.40570889</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-51332705.54920889</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-51244761.27920889</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-49889986.76070889</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-43570981.26130889</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-43642593.84130889</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-48643972.85720889</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-53161689.79735929</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-54303337.46365929</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-54309277.46365929</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-57844389.2150593</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-57844389.2150593</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-57839389.2150593</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-57844389.2150593</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-58755153.5889593</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-58755153.5889593</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-58752153.5889593</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-58753831.8098593</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-58753831.8098593</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-58736761.4428593</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-60631468.0537593</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-60631468.0537593</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-59934048.91245929</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-64612785.70405929</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-64258023.56065929</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-64049346.89265929</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-64483483.32745929</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-63279754.65155929</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-63279754.65155929</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-63279754.65155929</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-63452596.68355929</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-61232155.90095929</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-59030641.48145929</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-59030641.48145929</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-58803731.85913169</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-60608755.99000409</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-58914735.37480409</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-58822653.73630409</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-61524948.14770409</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-61522081.12540409</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-63133805.72230409</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-63126199.40530409</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-63126199.40530409</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-63126199.40530409</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-64772594.00360409</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-65540530.84640409</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-67282437.41500409</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-65956961.42940409</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-65687589.08195335</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-65909958.83675335</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-70612537.86580262</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-70554670.86580262</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-71632560.43450262</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-71858067.46050261</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-68415116.19770262</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-68668116.19770262</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-70256149.63480261</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-70362579.63480261</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-69668712.9584026</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-69656634.3481026</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-68464556.2284026</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-69012950.21540259</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-69012950.21540259</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-70570929.27610259</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-64333103.10310259</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-65943889.02380259</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-68149766.13290259</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-75278061.27950259</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-72530990.74910256</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-78376934.07550256</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-78258844.07550256</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -12298,11 +12298,17 @@
         <v>-96300816.52167782</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.4659</v>
+      </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12341,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12374,17 @@
         <v>-95487559.48857781</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.4586</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12413,17 @@
         <v>-95237559.48857781</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.468</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12452,17 @@
         <v>-95262103.54297781</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12495,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12528,17 @@
         <v>-94696100.34937781</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12571,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12608,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +12645,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +12682,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +12719,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +12756,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +12793,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +12830,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +12863,17 @@
         <v>-98800688.03075504</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.474</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +12906,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +12939,17 @@
         <v>-98775154.03075504</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.4739</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +12978,17 @@
         <v>-98772932.03075504</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0.47</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +13017,17 @@
         <v>-98771821.03075504</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.471</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +13056,17 @@
         <v>-99704455.56225504</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0.4715</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +13095,17 @@
         <v>-99631581.56225504</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13134,17 @@
         <v>-99628247.56225504</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0.4735</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13173,17 @@
         <v>-100603165.543755</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0.4739</v>
+      </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13216,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13253,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13290,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13327,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13364,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +13401,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13438,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13471,17 @@
         <v>-94311999.35475503</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.4709</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13510,17 @@
         <v>-94255216.35475503</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.4611</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13549,17 @@
         <v>-94265470.73575503</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.471</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13588,17 @@
         <v>-94269868.73575503</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.4709</v>
+      </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +13627,17 @@
         <v>-102708894.077955</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.4707</v>
+      </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13666,17 @@
         <v>-102677475.908155</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13705,17 @@
         <v>-102694205.908155</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.4704</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +13744,17 @@
         <v>-102758772.738355</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.4697</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13783,17 @@
         <v>-103111192.801555</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13822,17 @@
         <v>-102757270.313255</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.464</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13861,17 @@
         <v>-86495880.94245502</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.4645</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13900,17 @@
         <v>-86495880.94245502</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +13943,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +13980,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +14017,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +14050,17 @@
         <v>-86634487.12935503</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.4645</v>
+      </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +14089,17 @@
         <v>-86634487.12935503</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.4645</v>
+      </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +14128,17 @@
         <v>-86623065.12935503</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.4645</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +14167,17 @@
         <v>-86803592.22015503</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.4686</v>
+      </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13948,15 +14206,17 @@
         <v>-86803592.22015503</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>0.4628</v>
       </c>
-      <c r="J411" t="n">
-        <v>0.4628</v>
-      </c>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,17 +14245,15 @@
         <v>-83481437.79865503</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>0.4628</v>
       </c>
-      <c r="J412" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L412" t="n">
@@ -14026,14 +14284,12 @@
         <v>-83431437.79865503</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>0.4659</v>
       </c>
-      <c r="J413" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14067,14 +14323,12 @@
         <v>-83448073.83855504</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>0.4669</v>
       </c>
-      <c r="J414" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14108,14 +14362,12 @@
         <v>-79820302.48795503</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>0.4628</v>
       </c>
-      <c r="J415" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14149,12 +14401,12 @@
         <v>-79907431.39715503</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>0.4628</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.4699</v>
+      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14188,12 +14440,12 @@
         <v>-79898543.39715503</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
         <v>0.4628</v>
       </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14227,12 +14479,12 @@
         <v>-79900160.66975503</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>0.4628</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.4695</v>
+      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14266,12 +14518,12 @@
         <v>-79843433.66975503</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>0.4628</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.4683</v>
+      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14305,12 +14557,12 @@
         <v>-79832869.29485503</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>0.4628</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14344,12 +14596,12 @@
         <v>-79832869.29485503</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>0.4628</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0.4797</v>
+      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14386,9 +14638,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14425,9 +14675,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14464,9 +14712,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14503,9 +14749,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14542,9 +14786,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14581,9 +14823,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14620,9 +14860,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14659,9 +14897,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14698,9 +14934,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14737,9 +14971,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14776,9 +15008,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14815,9 +15045,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14854,9 +15082,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14893,9 +15119,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14932,9 +15156,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14971,9 +15193,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15010,9 +15230,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15049,9 +15267,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15088,9 +15304,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15127,9 +15341,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15166,9 +15378,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15205,9 +15415,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15244,9 +15452,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15283,9 +15489,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15322,9 +15526,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15361,9 +15563,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15400,9 +15600,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15439,9 +15637,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15478,9 +15674,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15517,9 +15711,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15556,9 +15748,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15595,9 +15785,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15634,9 +15822,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15673,9 +15859,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15712,9 +15896,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15751,9 +15933,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>0.4628</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15765,6 +15945,6 @@
       <c r="M457" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest OCN.xlsx
+++ b/BackTest/2020-01-14 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-34731559.5251089</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-38309726.0100089</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-38309726.0100089</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-39656638.6600089</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-50077554.0292089</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-50076354.0292089</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-50533180.0491089</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-54975971.1234089</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-49091083.5168089</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-50072490.40570889</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-51332705.54920889</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-51244761.27920889</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-43570981.26130889</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-48643972.85720889</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -10153,10 +10153,14 @@
         <v>-108528519.5903778</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.4879</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.4879</v>
+      </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
@@ -10186,11 +10190,19 @@
         <v>-108528519.5903778</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.4879</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.4879</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10234,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0.4879</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10516,10 +10534,14 @@
         <v>-104671383.3657778</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.483</v>
+      </c>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
@@ -10552,8 +10574,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +10613,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11111,17 @@
         <v>-93528221.2027778</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.483</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11154,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11187,17 @@
         <v>-94232802.9321778</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.4775</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11226,17 @@
         <v>-94549339.2120778</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.493</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11265,17 @@
         <v>-94551017.4329778</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.4875</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11304,17 @@
         <v>-93281025.81127779</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.4775</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11343,17 @@
         <v>-93432355.81127779</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.499</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11386,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11423,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11460,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11497,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11534,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11571,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +11608,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +11645,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11678,17 @@
         <v>-93506725.6205778</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.4765</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11717,17 @@
         <v>-93591210.7467778</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.4845</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11756,17 @@
         <v>-93664229.15977781</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0.4844</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +11795,17 @@
         <v>-93490173.2590778</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.4757</v>
+      </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +11834,17 @@
         <v>-92861441.21967781</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.4844</v>
+      </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +11877,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +11910,17 @@
         <v>-92490870.2582778</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.4752</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +11953,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +11990,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +12023,17 @@
         <v>-94356110.37647781</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.4751</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12062,17 @@
         <v>-94755756.3885778</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.4762</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +12101,17 @@
         <v>-96330756.26837781</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.4751</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12140,17 @@
         <v>-96318345.26837781</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.4747</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +12179,17 @@
         <v>-96322789.26837781</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.476</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +12218,17 @@
         <v>-96308239.66217782</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.47</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12257,17 @@
         <v>-96307128.66217782</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12296,17 @@
         <v>-96807128.66217782</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.476</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12335,17 @@
         <v>-96644181.62767781</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.457</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +12374,17 @@
         <v>-97144370.54327781</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12413,17 @@
         <v>-97094370.54327781</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.4575</v>
+      </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12452,17 @@
         <v>-97019370.54327781</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.472</v>
+      </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12491,17 @@
         <v>-97187460.54327781</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.473</v>
+      </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12306,7 +12538,7 @@
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L361" t="n">
@@ -12337,9 +12569,11 @@
         <v>-96895842.01597781</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -12452,11 +12686,9 @@
         <v>-95262103.54297781</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>0.4759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -12491,9 +12723,11 @@
         <v>-95176394.30547781</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.468</v>
+      </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12528,11 +12762,9 @@
         <v>-94696100.34937781</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>0.4759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -12863,11 +13095,9 @@
         <v>-98800688.03075504</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>0.474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -12939,11 +13169,9 @@
         <v>-98775154.03075504</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>0.4739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -12978,11 +13206,9 @@
         <v>-98772932.03075504</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>0.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13017,11 +13243,9 @@
         <v>-98771821.03075504</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>0.471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13056,11 +13280,9 @@
         <v>-99704455.56225504</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>0.4715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13095,11 +13317,9 @@
         <v>-99631581.56225504</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>0.4649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -13134,11 +13354,9 @@
         <v>-99628247.56225504</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>0.4735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13173,11 +13391,9 @@
         <v>-100603165.543755</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>0.4739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13434,9 +13650,11 @@
         <v>-94236598.80925503</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.4739</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13471,11 +13689,9 @@
         <v>-94311999.35475503</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>0.4709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -13549,11 +13765,9 @@
         <v>-94265470.73575503</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>0.471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -13588,11 +13802,9 @@
         <v>-94269868.73575503</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>0.4709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -13627,11 +13839,9 @@
         <v>-102708894.077955</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>0.4707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -13666,11 +13876,9 @@
         <v>-102677475.908155</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>0.4649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -13705,11 +13913,9 @@
         <v>-102694205.908155</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>0.4704</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13744,11 +13950,9 @@
         <v>-102758772.738355</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>0.4697</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13783,11 +13987,9 @@
         <v>-103111192.801555</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>0.4649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -13822,11 +14024,9 @@
         <v>-102757270.313255</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>0.464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -13861,11 +14061,9 @@
         <v>-86495880.94245502</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>0.4645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -13900,11 +14098,9 @@
         <v>-86495880.94245502</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>0.4649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -14050,11 +14246,9 @@
         <v>-86634487.12935503</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>0.4645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14089,11 +14283,9 @@
         <v>-86634487.12935503</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>0.4645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14128,11 +14320,9 @@
         <v>-86623065.12935503</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>0.4645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14167,11 +14357,9 @@
         <v>-86803592.22015503</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>0.4686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14206,11 +14394,9 @@
         <v>-86803592.22015503</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>0.4628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14245,11 +14431,9 @@
         <v>-83481437.79865503</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>0.4628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14284,11 +14468,9 @@
         <v>-83431437.79865503</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>0.4659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14323,11 +14505,9 @@
         <v>-83448073.83855504</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>0.4669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14362,11 +14542,9 @@
         <v>-79820302.48795503</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>0.4628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -14401,11 +14579,9 @@
         <v>-79907431.39715503</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>0.4699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -14440,11 +14616,9 @@
         <v>-79898543.39715503</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>0.4628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14479,11 +14653,9 @@
         <v>-79900160.66975503</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>0.4695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -14518,11 +14690,9 @@
         <v>-79843433.66975503</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>0.4683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -14557,11 +14727,9 @@
         <v>-79832869.29485503</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>0.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -14596,11 +14764,9 @@
         <v>-79832869.29485503</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>0.4797</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -15945,6 +16111,6 @@
       <c r="M457" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest OCN.xlsx
+++ b/BackTest/2020-01-14 BackTest OCN.xlsx
@@ -550,7 +550,7 @@
         <v>-34731559.5251089</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-38309726.0100089</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-38309726.0100089</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-59934048.91245929</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-59934048.91245929</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-64612785.70405929</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-64612785.70405929</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-63279754.65155929</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-63279754.65155929</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-63452596.68355929</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-62508085.84315929</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-62508085.84315929</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-59030641.48145929</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-59030641.48145929</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-58803731.85913169</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-60608755.99000409</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-58914735.37480409</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-58822653.73630409</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-61524948.14770409</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-61522081.12540409</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-63133805.72230409</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-63126199.40530409</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-63126199.40530409</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-63126199.40530409</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-64772594.00360409</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-65540530.84640409</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-67282437.41500409</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-65956961.42940409</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-65687589.08195335</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-65909958.83675335</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-70612537.86580262</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-70554670.86580262</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-71632560.43450262</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-71858067.46050261</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-68415116.19770262</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-68668116.19770262</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-70256149.63480261</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-70362579.63480261</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-69668712.9584026</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-69656634.3481026</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-68464556.2284026</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-68459479.89610259</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-69012950.21540259</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-69012950.21540259</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-70570929.27610259</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-71690850.61050259</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-71189563.75420259</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-64291021.46460259</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-64383103.10310259</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-64333103.10310259</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-64333103.10310259</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-65943889.02380259</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-68149766.13290259</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-70996438.8655026</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-72484726.36610259</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-70463708.25960259</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-71295540.12130259</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-71950055.69190259</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-71825055.69190259</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-71775055.69190259</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-73851458.91870259</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-73839495.91870259</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-73839495.91870259</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-74873404.73640259</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-74474561.72000259</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-74469661.72000259</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-74465257.03480259</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-74502897.03480259</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-74729448.37390259</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-72206020.11950259</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-72439407.16250259</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-72416459.16250259</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-72416459.16250259</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-75288061.27950259</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-74060273.33540258</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-72889033.49560258</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-73312258.73560257</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-73305958.73560257</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -10153,14 +10153,10 @@
         <v>-108528519.5903778</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0.4879</v>
-      </c>
-      <c r="J296" t="n">
-        <v>0.4879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
@@ -10190,19 +10186,11 @@
         <v>-108528519.5903778</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0.4879</v>
-      </c>
-      <c r="J297" t="n">
-        <v>0.4879</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10234,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>0.4879</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10534,14 +10516,10 @@
         <v>-104671383.3657778</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="J307" t="n">
-        <v>0.483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
@@ -10574,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10613,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11111,2332 +11077,2050 @@
         <v>-93528221.2027778</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="F325" t="n">
+        <v>1195509.7294</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-94723730.9321778</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="F326" t="n">
+        <v>490928</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-94232802.9321778</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="F327" t="n">
+        <v>316536.2799</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-94549339.2120778</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1678.2209</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-94551017.4329778</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1269991.6217</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-93281025.81127779</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="F330" t="n">
+        <v>151330</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-93432355.81127779</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="F331" t="n">
+        <v>321837.4392</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-93432355.81127779</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="F332" t="n">
+        <v>340243.8074</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-93432355.81127779</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="F333" t="n">
+        <v>435534.2223</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-93432355.81127779</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F334" t="n">
+        <v>76991</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-93432355.81127779</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="F335" t="n">
+        <v>119000</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-93432355.81127779</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="F336" t="n">
+        <v>6142.7539</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-93432355.81127779</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.4765</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.4765</v>
+      </c>
+      <c r="F337" t="n">
+        <v>242767.1112</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-93675122.9224778</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.4765</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.4765</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.4765</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.4765</v>
+      </c>
+      <c r="F338" t="n">
+        <v>39748.6981</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-93714871.6205778</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.4765</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.4845</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.4845</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.4765</v>
+      </c>
+      <c r="F339" t="n">
+        <v>208146</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-93506725.6205778</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.4765</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.4844</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.4844</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.4765</v>
+      </c>
+      <c r="F340" t="n">
+        <v>84485.1262</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-93591210.7467778</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="F341" t="n">
+        <v>73018.413</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-93664229.15977781</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.4844</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4844</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.4844</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.4844</v>
+      </c>
+      <c r="F342" t="n">
+        <v>174055.9007</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-93490173.2590778</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4845</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.4845</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="F343" t="n">
+        <v>628732.0394</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-92861441.21967781</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.4752</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.4752</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.4752</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.4752</v>
+      </c>
+      <c r="F344" t="n">
+        <v>44444</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-92905885.21967781</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.4762</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.4762</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.4762</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.4762</v>
+      </c>
+      <c r="F345" t="n">
+        <v>415014.9614</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-92490870.2582778</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.4752</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4752</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.4752</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.4752</v>
+      </c>
+      <c r="F346" t="n">
+        <v>55556</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-92546426.2582778</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.4751</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.4751</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.4751</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.4751</v>
+      </c>
+      <c r="F347" t="n">
+        <v>1820795.1182</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-94367221.37647781</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.4753</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.4762</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.4762</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.4753</v>
+      </c>
+      <c r="F348" t="n">
+        <v>11111</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-94356110.37647781</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.4751</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.4751</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.4751</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.4751</v>
+      </c>
+      <c r="F349" t="n">
+        <v>399646.0121</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-94755756.3885778</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4747</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.4747</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="F350" t="n">
+        <v>1574999.8798</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-96330756.26837781</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.4747</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.4747</v>
+      </c>
+      <c r="F351" t="n">
+        <v>12411</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-96318345.26837781</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="F352" t="n">
+        <v>4444</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-96322789.26837781</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="F353" t="n">
+        <v>14549.6062</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-96308239.66217782</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F354" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-96307128.66217782</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.4752</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.4752</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="F355" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-96807128.66217782</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F356" t="n">
+        <v>162947.0345</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-96644181.62767781</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.4575</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.4575</v>
+      </c>
+      <c r="F357" t="n">
+        <v>500188.9156</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-97144370.54327781</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="F358" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-97094370.54327781</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="F359" t="n">
+        <v>75000</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-97019370.54327781</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.4675</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.4675</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="F360" t="n">
+        <v>168090</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-97187460.54327781</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="F361" t="n">
+        <v>886644.0216</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-96300816.52167782</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.4586</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.4586</v>
+      </c>
+      <c r="F362" t="n">
+        <v>595025.4943</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-96895842.01597781</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="F363" t="n">
+        <v>1408282.5274</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-95487559.48857781</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="F364" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-95237559.48857781</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="F365" t="n">
+        <v>24544.0544</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-95262103.54297781</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F366" t="n">
+        <v>85709.2375</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-95176394.30547781</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="C367" t="n">
         <v>0.483</v>
       </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
+      <c r="D367" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="F367" t="n">
+        <v>480293.9561</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-94696100.34937781</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="F368" t="n">
+        <v>932634.5314772491</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-95628734.88085505</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="F369" t="n">
+        <v>96077.93369999999</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-95628734.88085505</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.4812</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.4812</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="F370" t="n">
+        <v>2243660.0542</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-97872394.93505505</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.4812</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.4812</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.4812</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.4812</v>
+      </c>
+      <c r="F371" t="n">
+        <v>133333.3332</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-97872394.93505505</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.4725</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.4725</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.4725</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.4725</v>
+      </c>
+      <c r="F372" t="n">
+        <v>93550</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-97965944.93505505</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.4602</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.4795</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.4795</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.4602</v>
+      </c>
+      <c r="F373" t="n">
+        <v>1342619.4576</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-96623325.47745505</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.4703</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.4671</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.4703</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.4671</v>
+      </c>
+      <c r="F374" t="n">
+        <v>618361.5533</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-97241687.03075504</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.4686</v>
+      </c>
+      <c r="F375" t="n">
+        <v>213413</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-97028274.03075504</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.4687</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.4687</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.4687</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.4687</v>
+      </c>
+      <c r="F376" t="n">
+        <v>1772414</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-98800688.03075504</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.4687</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.4739</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.4739</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.4687</v>
+      </c>
+      <c r="F377" t="n">
+        <v>26645</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-98774043.03075504</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F378" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-98775154.03075504</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.4705</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.4705</v>
+      </c>
+      <c r="F379" t="n">
+        <v>2222</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-98772932.03075504</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.4715</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.4715</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.4715</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.4715</v>
+      </c>
+      <c r="F380" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-98771821.03075504</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.4715</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.4649</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.4715</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.4649</v>
+      </c>
+      <c r="F381" t="n">
+        <v>932634.5315</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-99704455.56225504</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.4735</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.4735</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="F382" t="n">
+        <v>72874</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-99631581.56225504</v>
+      </c>
+      <c r="H382" t="n">
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.4649</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.4649</v>
+      </c>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.4736</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.4739</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.4739</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.4736</v>
+      </c>
+      <c r="F383" t="n">
+        <v>3334</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-99628247.56225504</v>
+      </c>
+      <c r="H383" t="n">
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0.4735</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.4649</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.4699</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.4699</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="F384" t="n">
+        <v>974917.9815</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-100603165.543755</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>0.4649</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.4674</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4739</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.4739</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.4673</v>
+      </c>
+      <c r="F385" t="n">
+        <v>1120433</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-99482732.54375504</v>
+      </c>
+      <c r="H385" t="n">
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.4649</v>
+      </c>
+      <c r="K385" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>0.482</v>
-      </c>
-      <c r="C325" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="D325" t="n">
-        <v>0.482</v>
-      </c>
-      <c r="E325" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="F325" t="n">
-        <v>1195509.7294</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-94723730.9321778</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="C326" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="D326" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="E326" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="F326" t="n">
-        <v>490928</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-94232802.9321778</v>
-      </c>
-      <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="C327" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="D327" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="E327" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="F327" t="n">
-        <v>316536.2799</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-94549339.2120778</v>
-      </c>
-      <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="C328" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="D328" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="E328" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="F328" t="n">
-        <v>1678.2209</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-94551017.4329778</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="C329" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="D329" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="E329" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="F329" t="n">
-        <v>1269991.6217</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-93281025.81127779</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="C330" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="D330" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="E330" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="F330" t="n">
-        <v>151330</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-93432355.81127779</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="C331" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="D331" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="E331" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="F331" t="n">
-        <v>321837.4392</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-93432355.81127779</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="C332" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="D332" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="E332" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="F332" t="n">
-        <v>340243.8074</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-93432355.81127779</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="C333" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="D333" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="E333" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="F333" t="n">
-        <v>435534.2223</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-93432355.81127779</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C334" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="D334" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="E334" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F334" t="n">
-        <v>76991</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-93432355.81127779</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="C335" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="D335" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="E335" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="F335" t="n">
-        <v>119000</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-93432355.81127779</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="C336" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="D336" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="E336" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="F336" t="n">
-        <v>6142.7539</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-93432355.81127779</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="C337" t="n">
-        <v>0.485</v>
-      </c>
-      <c r="D337" t="n">
-        <v>0.485</v>
-      </c>
-      <c r="E337" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="F337" t="n">
-        <v>242767.1112</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-93675122.9224778</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="C338" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="D338" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="E338" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="F338" t="n">
-        <v>39748.6981</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-93714871.6205778</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="C339" t="n">
-        <v>0.4845</v>
-      </c>
-      <c r="D339" t="n">
-        <v>0.4845</v>
-      </c>
-      <c r="E339" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="F339" t="n">
-        <v>208146</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-93506725.6205778</v>
-      </c>
-      <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="C340" t="n">
-        <v>0.4844</v>
-      </c>
-      <c r="D340" t="n">
-        <v>0.4844</v>
-      </c>
-      <c r="E340" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="F340" t="n">
-        <v>84485.1262</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-93591210.7467778</v>
-      </c>
-      <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0.4845</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>0.4757</v>
-      </c>
-      <c r="C341" t="n">
-        <v>0.4757</v>
-      </c>
-      <c r="D341" t="n">
-        <v>0.4757</v>
-      </c>
-      <c r="E341" t="n">
-        <v>0.4757</v>
-      </c>
-      <c r="F341" t="n">
-        <v>73018.413</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-93664229.15977781</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>0.4844</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>0.4844</v>
-      </c>
-      <c r="C342" t="n">
-        <v>0.4844</v>
-      </c>
-      <c r="D342" t="n">
-        <v>0.4844</v>
-      </c>
-      <c r="E342" t="n">
-        <v>0.4844</v>
-      </c>
-      <c r="F342" t="n">
-        <v>174055.9007</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-93490173.2590778</v>
-      </c>
-      <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>0.4757</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>0.4757</v>
-      </c>
-      <c r="C343" t="n">
-        <v>0.4845</v>
-      </c>
-      <c r="D343" t="n">
-        <v>0.4845</v>
-      </c>
-      <c r="E343" t="n">
-        <v>0.4757</v>
-      </c>
-      <c r="F343" t="n">
-        <v>628732.0394</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-92861441.21967781</v>
-      </c>
-      <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>0.4844</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>0.4752</v>
-      </c>
-      <c r="C344" t="n">
-        <v>0.4752</v>
-      </c>
-      <c r="D344" t="n">
-        <v>0.4752</v>
-      </c>
-      <c r="E344" t="n">
-        <v>0.4752</v>
-      </c>
-      <c r="F344" t="n">
-        <v>44444</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-92905885.21967781</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>0.4762</v>
-      </c>
-      <c r="C345" t="n">
-        <v>0.4762</v>
-      </c>
-      <c r="D345" t="n">
-        <v>0.4762</v>
-      </c>
-      <c r="E345" t="n">
-        <v>0.4762</v>
-      </c>
-      <c r="F345" t="n">
-        <v>415014.9614</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-92490870.2582778</v>
-      </c>
-      <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>0.4752</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>0.4752</v>
-      </c>
-      <c r="C346" t="n">
-        <v>0.4752</v>
-      </c>
-      <c r="D346" t="n">
-        <v>0.4752</v>
-      </c>
-      <c r="E346" t="n">
-        <v>0.4752</v>
-      </c>
-      <c r="F346" t="n">
-        <v>55556</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-92546426.2582778</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>0.4751</v>
-      </c>
-      <c r="C347" t="n">
-        <v>0.4751</v>
-      </c>
-      <c r="D347" t="n">
-        <v>0.4751</v>
-      </c>
-      <c r="E347" t="n">
-        <v>0.4751</v>
-      </c>
-      <c r="F347" t="n">
-        <v>1820795.1182</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-94367221.37647781</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>0.4753</v>
-      </c>
-      <c r="C348" t="n">
-        <v>0.4762</v>
-      </c>
-      <c r="D348" t="n">
-        <v>0.4762</v>
-      </c>
-      <c r="E348" t="n">
-        <v>0.4753</v>
-      </c>
-      <c r="F348" t="n">
-        <v>11111</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-94356110.37647781</v>
-      </c>
-      <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>0.4751</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>0.4751</v>
-      </c>
-      <c r="C349" t="n">
-        <v>0.4751</v>
-      </c>
-      <c r="D349" t="n">
-        <v>0.4751</v>
-      </c>
-      <c r="E349" t="n">
-        <v>0.4751</v>
-      </c>
-      <c r="F349" t="n">
-        <v>399646.0121</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-94755756.3885778</v>
-      </c>
-      <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>0.4762</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="C350" t="n">
-        <v>0.4747</v>
-      </c>
-      <c r="D350" t="n">
-        <v>0.4747</v>
-      </c>
-      <c r="E350" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="F350" t="n">
-        <v>1574999.8798</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-96330756.26837781</v>
-      </c>
-      <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>0.4751</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>0.4747</v>
-      </c>
-      <c r="C351" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="D351" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="E351" t="n">
-        <v>0.4747</v>
-      </c>
-      <c r="F351" t="n">
-        <v>12411</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-96318345.26837781</v>
-      </c>
-      <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>0.4747</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="C352" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D352" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E352" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="F352" t="n">
-        <v>4444</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-96322789.26837781</v>
-      </c>
-      <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="C353" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D353" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E353" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="F353" t="n">
-        <v>14549.6062</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-96308239.66217782</v>
-      </c>
-      <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C354" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="D354" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="E354" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F354" t="n">
-        <v>1111</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-96307128.66217782</v>
-      </c>
-      <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>0.4752</v>
-      </c>
-      <c r="C355" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="D355" t="n">
-        <v>0.4752</v>
-      </c>
-      <c r="E355" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="F355" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-96807128.66217782</v>
-      </c>
-      <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C356" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D356" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E356" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F356" t="n">
-        <v>162947.0345</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-96644181.62767781</v>
-      </c>
-      <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="C357" t="n">
-        <v>0.4575</v>
-      </c>
-      <c r="D357" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="E357" t="n">
-        <v>0.4575</v>
-      </c>
-      <c r="F357" t="n">
-        <v>500188.9156</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-97144370.54327781</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="C358" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="D358" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="E358" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="F358" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-97094370.54327781</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>0.4575</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="C359" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="D359" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="E359" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="F359" t="n">
-        <v>75000</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-97019370.54327781</v>
-      </c>
-      <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>0.4675</v>
-      </c>
-      <c r="C360" t="n">
-        <v>0.4659</v>
-      </c>
-      <c r="D360" t="n">
-        <v>0.4675</v>
-      </c>
-      <c r="E360" t="n">
-        <v>0.4659</v>
-      </c>
-      <c r="F360" t="n">
-        <v>168090</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-97187460.54327781</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>0.4659</v>
-      </c>
-      <c r="C361" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D361" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E361" t="n">
-        <v>0.4659</v>
-      </c>
-      <c r="F361" t="n">
-        <v>886644.0216</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-96300816.52167782</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>0.4659</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="C362" t="n">
-        <v>0.4586</v>
-      </c>
-      <c r="D362" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E362" t="n">
-        <v>0.4586</v>
-      </c>
-      <c r="F362" t="n">
-        <v>595025.4943</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-96895842.01597781</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="C363" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="D363" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="E363" t="n">
-        <v>0.4659</v>
-      </c>
-      <c r="F363" t="n">
-        <v>1408282.5274</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-95487559.48857781</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>0.4586</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="C364" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D364" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E364" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="F364" t="n">
-        <v>250000</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-95237559.48857781</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="C365" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="D365" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="E365" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="F365" t="n">
-        <v>24544.0544</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-95262103.54297781</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C366" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D366" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E366" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F366" t="n">
-        <v>85709.2375</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-95176394.30547781</v>
-      </c>
-      <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>0.4757</v>
-      </c>
-      <c r="C367" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="D367" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="E367" t="n">
-        <v>0.4757</v>
-      </c>
-      <c r="F367" t="n">
-        <v>480293.9561</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-94696100.34937781</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>0.4813</v>
-      </c>
-      <c r="C368" t="n">
-        <v>0.4813</v>
-      </c>
-      <c r="D368" t="n">
-        <v>0.4813</v>
-      </c>
-      <c r="E368" t="n">
-        <v>0.4813</v>
-      </c>
-      <c r="F368" t="n">
-        <v>932634.5314772491</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-95628734.88085505</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>0.4813</v>
-      </c>
-      <c r="C369" t="n">
-        <v>0.4813</v>
-      </c>
-      <c r="D369" t="n">
-        <v>0.4813</v>
-      </c>
-      <c r="E369" t="n">
-        <v>0.4813</v>
-      </c>
-      <c r="F369" t="n">
-        <v>96077.93369999999</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-95628734.88085505</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="C370" t="n">
-        <v>0.4812</v>
-      </c>
-      <c r="D370" t="n">
-        <v>0.4812</v>
-      </c>
-      <c r="E370" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="F370" t="n">
-        <v>2243660.0542</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-97872394.93505505</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>0.4812</v>
-      </c>
-      <c r="C371" t="n">
-        <v>0.4812</v>
-      </c>
-      <c r="D371" t="n">
-        <v>0.4812</v>
-      </c>
-      <c r="E371" t="n">
-        <v>0.4812</v>
-      </c>
-      <c r="F371" t="n">
-        <v>133333.3332</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-97872394.93505505</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>0.4725</v>
-      </c>
-      <c r="C372" t="n">
-        <v>0.4725</v>
-      </c>
-      <c r="D372" t="n">
-        <v>0.4725</v>
-      </c>
-      <c r="E372" t="n">
-        <v>0.4725</v>
-      </c>
-      <c r="F372" t="n">
-        <v>93550</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-97965944.93505505</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>0.4602</v>
-      </c>
-      <c r="C373" t="n">
-        <v>0.4795</v>
-      </c>
-      <c r="D373" t="n">
-        <v>0.4795</v>
-      </c>
-      <c r="E373" t="n">
-        <v>0.4602</v>
-      </c>
-      <c r="F373" t="n">
-        <v>1342619.4576</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-96623325.47745505</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0.4703</v>
-      </c>
-      <c r="C374" t="n">
-        <v>0.4671</v>
-      </c>
-      <c r="D374" t="n">
-        <v>0.4703</v>
-      </c>
-      <c r="E374" t="n">
-        <v>0.4671</v>
-      </c>
-      <c r="F374" t="n">
-        <v>618361.5533</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-97241687.03075504</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="C375" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="D375" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="E375" t="n">
-        <v>0.4686</v>
-      </c>
-      <c r="F375" t="n">
-        <v>213413</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-97028274.03075504</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0.4687</v>
-      </c>
-      <c r="C376" t="n">
-        <v>0.4687</v>
-      </c>
-      <c r="D376" t="n">
-        <v>0.4687</v>
-      </c>
-      <c r="E376" t="n">
-        <v>0.4687</v>
-      </c>
-      <c r="F376" t="n">
-        <v>1772414</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-98800688.03075504</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>0.4687</v>
-      </c>
-      <c r="C377" t="n">
-        <v>0.4739</v>
-      </c>
-      <c r="D377" t="n">
-        <v>0.4739</v>
-      </c>
-      <c r="E377" t="n">
-        <v>0.4687</v>
-      </c>
-      <c r="F377" t="n">
-        <v>26645</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-98774043.03075504</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="C378" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D378" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E378" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F378" t="n">
-        <v>1111</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-98775154.03075504</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>0.4705</v>
-      </c>
-      <c r="C379" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="D379" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="E379" t="n">
-        <v>0.4705</v>
-      </c>
-      <c r="F379" t="n">
-        <v>2222</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-98772932.03075504</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>0.4715</v>
-      </c>
-      <c r="C380" t="n">
-        <v>0.4715</v>
-      </c>
-      <c r="D380" t="n">
-        <v>0.4715</v>
-      </c>
-      <c r="E380" t="n">
-        <v>0.4715</v>
-      </c>
-      <c r="F380" t="n">
-        <v>1111</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-98771821.03075504</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>0.4715</v>
-      </c>
-      <c r="C381" t="n">
-        <v>0.4649</v>
-      </c>
-      <c r="D381" t="n">
-        <v>0.4715</v>
-      </c>
-      <c r="E381" t="n">
-        <v>0.4649</v>
-      </c>
-      <c r="F381" t="n">
-        <v>932634.5315</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-99704455.56225504</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="C382" t="n">
-        <v>0.4735</v>
-      </c>
-      <c r="D382" t="n">
-        <v>0.4735</v>
-      </c>
-      <c r="E382" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="F382" t="n">
-        <v>72874</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-99631581.56225504</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>0.4736</v>
-      </c>
-      <c r="C383" t="n">
-        <v>0.4739</v>
-      </c>
-      <c r="D383" t="n">
-        <v>0.4739</v>
-      </c>
-      <c r="E383" t="n">
-        <v>0.4736</v>
-      </c>
-      <c r="F383" t="n">
-        <v>3334</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-99628247.56225504</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>0.4699</v>
-      </c>
-      <c r="C384" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="D384" t="n">
-        <v>0.4699</v>
-      </c>
-      <c r="E384" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="F384" t="n">
-        <v>974917.9815</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-100603165.543755</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>0.4674</v>
-      </c>
-      <c r="C385" t="n">
-        <v>0.4739</v>
-      </c>
-      <c r="D385" t="n">
-        <v>0.4739</v>
-      </c>
-      <c r="E385" t="n">
-        <v>0.4673</v>
-      </c>
-      <c r="F385" t="n">
-        <v>1120433</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-99482732.54375504</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13465,10 +13149,14 @@
         <v>-99482732.54375504</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.4739</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13502,10 +13190,14 @@
         <v>-101368782.569055</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.4739</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13539,10 +13231,14 @@
         <v>-92626362.72635503</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13579,7 +13275,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13616,7 +13314,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13650,12 +13350,12 @@
         <v>-94236598.80925503</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>0.4739</v>
-      </c>
-      <c r="J391" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13692,7 +13392,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13731,7 +13433,9 @@
       <c r="I393" t="n">
         <v>0.4611</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13765,10 +13469,14 @@
         <v>-94265470.73575503</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13802,10 +13510,14 @@
         <v>-94269868.73575503</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.4709</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13839,10 +13551,14 @@
         <v>-102708894.077955</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.4707</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13879,7 +13595,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13916,7 +13634,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13953,7 +13673,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13987,10 +13709,14 @@
         <v>-103111192.801555</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.4649</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14024,10 +13750,14 @@
         <v>-102757270.313255</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14061,10 +13791,14 @@
         <v>-86495880.94245502</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14101,7 +13835,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14138,7 +13874,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14175,7 +13913,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14212,7 +13952,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14249,7 +13991,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14286,7 +14030,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14320,10 +14066,14 @@
         <v>-86623065.12935503</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14357,10 +14107,14 @@
         <v>-86803592.22015503</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.4686</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14394,10 +14148,14 @@
         <v>-86803592.22015503</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.4628</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14431,10 +14189,14 @@
         <v>-83481437.79865503</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0.4628</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14468,10 +14230,14 @@
         <v>-83431437.79865503</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14505,10 +14271,14 @@
         <v>-83448073.83855504</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.4669</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14542,10 +14312,14 @@
         <v>-79820302.48795503</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.4628</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14579,10 +14353,14 @@
         <v>-79907431.39715503</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.4699</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14616,10 +14394,14 @@
         <v>-79898543.39715503</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.4628</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14653,10 +14435,14 @@
         <v>-79900160.66975503</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.4695</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14693,7 +14479,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14730,7 +14518,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14767,7 +14557,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14804,7 +14596,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14841,7 +14635,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14878,7 +14674,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14915,7 +14713,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14952,7 +14752,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14989,7 +14791,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15026,7 +14830,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15063,7 +14869,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15100,7 +14908,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15137,7 +14947,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15174,7 +14986,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15211,7 +15025,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15248,7 +15064,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15285,7 +15103,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15322,7 +15142,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15359,7 +15181,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15396,7 +15220,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15433,7 +15259,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15470,7 +15298,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15507,7 +15337,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15544,7 +15376,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15581,7 +15415,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15618,7 +15454,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15655,7 +15493,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15692,7 +15532,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15729,7 +15571,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15766,7 +15610,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15803,7 +15649,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15840,7 +15688,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15877,7 +15727,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15914,7 +15766,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15951,7 +15805,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15988,7 +15844,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16025,7 +15883,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16062,7 +15922,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16099,7 +15961,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>0.4649</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
